--- a/unit tracking.xlsx
+++ b/unit tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\annika_deutsch\Binary-Pulsar-Distances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{191F2D8F-7458-47A5-BA6E-ADDE0AC2F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B661C2-7FBF-4AB7-9064-6BB6672E5804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9AB6D559-CA5C-4C57-B571-B20FFEF03C74}"/>
   </bookViews>
